--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-18-xlookup.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-18-xlookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{6E8421EB-08D7-4F05-AE46-31A019FB2FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2431F330-B811-432C-A3AE-44A5A75C1137}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DDB85C-6F59-42C6-9155-873EAAB50C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="XLOOKUP" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>Category</t>
   </si>
@@ -178,16 +178,25 @@
   </si>
   <si>
     <t>Free - Ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt; index , match </t>
+  </si>
+  <si>
+    <t>or xlookup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="[$$-409]#,##0_ ;\-[$$-409]#,##0\ "/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +212,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -262,13 +277,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -281,20 +297,147 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -307,6 +450,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9405998C-6FA8-4156-AC99-39C737215417}" name="App_list" displayName="App_list" ref="A3:E33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A3:E33" xr:uid="{9405998C-6FA8-4156-AC99-39C737215417}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{987938A8-74F1-45CE-9188-CB4E2F1C5D3B}" name="Category" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{FA09BC3C-F740-4DC5-8C7E-92BE02EB99F4}" name="App" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1B9F538A-08BB-4DB4-9E30-7A0BCC15A6EA}" name="Type" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F6EC8522-9197-4A80-B75A-A77FDC7DF7BF}" name="Revenue" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{89681095-269F-4800-9D0B-ACCA16195843}" name="Profit" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A3:H33"/>
+  <dimension ref="A3:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -582,13 +739,13 @@
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.09765625" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.8984375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -608,10 +765,10 @@
         <v>46</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -630,9 +787,22 @@
       <c r="G4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="8" t="str">
+        <f>INDEX(A4:A33,MATCH(H3,B4:B33,0))</f>
+        <v>Productivity</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>_xlfn.XLOOKUP(H3,B4:B33,A4:A33,)</f>
+        <v>Productivity</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -651,9 +821,12 @@
       <c r="G5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="str">
+        <f>_xlfn.XLOOKUP(H3,App_list[App],App_list[Type],"Not Found",0,1)</f>
+        <v>In-App Purchases</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -670,7 +843,7 @@
         <v>472365.60000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -689,9 +862,12 @@
       <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="9">
+        <f>_xlfn.XLOOKUP(H3,App_list[App],App_list[Profit])</f>
+        <v>924747.60000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -710,9 +886,12 @@
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="10">
+        <f>_xlfn.XLOOKUP(H3,App_list[App],App_list[Revenue])</f>
+        <v>2311869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -729,7 +908,7 @@
         <v>1350464.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -746,7 +925,7 @@
         <v>1881897.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -763,7 +942,7 @@
         <v>1457232.4000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -780,7 +959,7 @@
         <v>951809.20000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -797,7 +976,7 @@
         <v>1072939.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -814,7 +993,7 @@
         <v>887471.20000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -831,7 +1010,7 @@
         <v>920368</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1148,5 +1327,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>